--- a/biology/Zoologie/Atheris_nitschei/Atheris_nitschei.xlsx
+++ b/biology/Zoologie/Atheris_nitschei/Atheris_nitschei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atheris nitschei est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atheris nitschei est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Ouganda ;
 dans l'est de la République démocratique du Congo ;
 au Rwanda ;
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Atheris nitschei mesure en moyenne 60 cm, et jusqu'à plus de 70 cm pour les plus gros spécimens, les femelles étant plus grandes que les mâles. Cette vipère est verte avec de petits motifs brun-noir principalement sur le dos. Elle vit dans les marais, prairies, forêts ou maquis. Elle fréquente les zones humides. C'est un serpent venimeux.
 </t>
@@ -581,9 +597,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Atheris nitschei rungweensis a été élevée au rang d'espèce par Broadley en 1998[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Atheris nitschei rungweensis a été élevée au rang d'espèce par Broadley en 1998.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hinrich Nitsche (1845-1902)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hinrich Nitsche (1845-1902).
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tornier, 1902 : Herpetologisch Neues aus Deutsch-Ost-Afrika. Zoologische Jahrbücher. Abteilung für Systematik, Geographie und Biologie der Tiere, vol. 15, p. 578-590 (texte intégral).</t>
         </is>
